--- a/Model_building/descrittore_finale_games_PREDICT.xlsx
+++ b/Model_building/descrittore_finale_games_PREDICT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
   <si>
     <t>PARTITE</t>
   </si>
@@ -1067,6 +1067,12 @@
   </si>
   <si>
     <t>SF_MCDONALD_NISHIKORI_3_WASHINGTON_2021_HARD</t>
+  </si>
+  <si>
+    <t>F_SINNER_MCDONALD_3_WASHINGTON_2021_HARD</t>
+  </si>
+  <si>
+    <t>F_MCDONALD_SINNER_3_WASHINGTON_2021_HARD</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:LL29"/>
+  <dimension ref="A1:LL31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4963,19 +4969,19 @@
         <v>6</v>
       </c>
       <c r="GW4">
-        <v>-12.55446237364091</v>
+        <v>-12.5544623736409</v>
       </c>
       <c r="GX4">
-        <v>-7.359475707347229</v>
+        <v>-7.359475707347228</v>
       </c>
       <c r="GY4">
-        <v>-5.049492596512078</v>
+        <v>-5.049492596512074</v>
       </c>
       <c r="GZ4">
         <v>-11.47420195686155</v>
       </c>
       <c r="HA4">
-        <v>3.404675718047265</v>
+        <v>3.404675718047272</v>
       </c>
       <c r="HB4">
         <v>14</v>
@@ -5937,19 +5943,19 @@
         <v>6</v>
       </c>
       <c r="GW5">
-        <v>12.55446237364091</v>
+        <v>12.5544623736409</v>
       </c>
       <c r="GX5">
-        <v>7.359475707347229</v>
+        <v>7.359475707347228</v>
       </c>
       <c r="GY5">
-        <v>5.049492596512078</v>
+        <v>5.049492596512074</v>
       </c>
       <c r="GZ5">
         <v>11.47420195686155</v>
       </c>
       <c r="HA5">
-        <v>-3.404675718047265</v>
+        <v>-3.404675718047272</v>
       </c>
       <c r="HB5">
         <v>14</v>
@@ -12779,13 +12785,13 @@
         <v>-69.51263475028055</v>
       </c>
       <c r="HE12">
-        <v>-18.53670260007481</v>
+        <v>-18.53670260007482</v>
       </c>
       <c r="HF12">
-        <v>-7.063763576976709</v>
+        <v>-7.063763576976711</v>
       </c>
       <c r="HG12">
-        <v>-7.063763576976709</v>
+        <v>-7.063763576976711</v>
       </c>
       <c r="HH12">
         <v>38</v>
@@ -13061,13 +13067,13 @@
         <v>69.51263475028055</v>
       </c>
       <c r="KU12">
-        <v>18.53670260007481</v>
+        <v>18.53670260007482</v>
       </c>
       <c r="KV12">
-        <v>7.063763576976709</v>
+        <v>7.063763576976711</v>
       </c>
       <c r="KW12">
-        <v>7.063763576976709</v>
+        <v>7.063763576976711</v>
       </c>
       <c r="KX12">
         <v>0</v>
@@ -13753,13 +13759,13 @@
         <v>69.51263475028055</v>
       </c>
       <c r="HE13">
-        <v>18.53670260007481</v>
+        <v>18.53670260007482</v>
       </c>
       <c r="HF13">
-        <v>7.063763576976709</v>
+        <v>7.063763576976711</v>
       </c>
       <c r="HG13">
-        <v>7.063763576976709</v>
+        <v>7.063763576976711</v>
       </c>
       <c r="HH13">
         <v>38</v>
@@ -14020,13 +14026,13 @@
         <v>69.51263475028055</v>
       </c>
       <c r="KP13">
-        <v>18.53670260007481</v>
+        <v>18.53670260007482</v>
       </c>
       <c r="KQ13">
-        <v>7.063763576976709</v>
+        <v>7.063763576976711</v>
       </c>
       <c r="KR13">
-        <v>7.063763576976709</v>
+        <v>7.063763576976711</v>
       </c>
       <c r="KS13">
         <v>0</v>
@@ -14739,16 +14745,16 @@
         <v>11</v>
       </c>
       <c r="HI14">
-        <v>28.48096744727235</v>
+        <v>28.48096744727236</v>
       </c>
       <c r="HJ14">
-        <v>1.896489293202334</v>
+        <v>1.896489293202338</v>
       </c>
       <c r="HK14">
-        <v>26.21702805506897</v>
+        <v>26.21702805506898</v>
       </c>
       <c r="HL14">
-        <v>10.77605008230874</v>
+        <v>10.77605008230875</v>
       </c>
       <c r="HM14">
         <v>22.71929103964827</v>
@@ -15042,19 +15048,19 @@
         <v>30.08877172432615</v>
       </c>
       <c r="LF14">
-        <v>32.86650307861099</v>
+        <v>32.86650307861098</v>
       </c>
       <c r="LG14">
-        <v>9.315535441129818</v>
+        <v>9.315535441129814</v>
       </c>
       <c r="LH14">
-        <v>18.63107088225964</v>
+        <v>18.63107088225963</v>
       </c>
       <c r="LI14">
-        <v>7.369480684677882</v>
+        <v>7.369480684677878</v>
       </c>
       <c r="LJ14">
-        <v>7.369480684677882</v>
+        <v>7.369480684677878</v>
       </c>
       <c r="LK14">
         <v>0</v>
@@ -15713,16 +15719,16 @@
         <v>11</v>
       </c>
       <c r="HI15">
-        <v>-28.48096744727235</v>
+        <v>-28.48096744727236</v>
       </c>
       <c r="HJ15">
-        <v>-1.896489293202334</v>
+        <v>-1.896489293202338</v>
       </c>
       <c r="HK15">
-        <v>-26.21702805506897</v>
+        <v>-26.21702805506898</v>
       </c>
       <c r="HL15">
-        <v>-10.77605008230874</v>
+        <v>-10.77605008230875</v>
       </c>
       <c r="HM15">
         <v>-22.71929103964827</v>
@@ -16001,19 +16007,19 @@
         <v>11</v>
       </c>
       <c r="LA15">
-        <v>32.86650307861099</v>
+        <v>32.86650307861098</v>
       </c>
       <c r="LB15">
-        <v>9.315535441129818</v>
+        <v>9.315535441129814</v>
       </c>
       <c r="LC15">
-        <v>18.63107088225964</v>
+        <v>18.63107088225963</v>
       </c>
       <c r="LD15">
-        <v>7.369480684677882</v>
+        <v>7.369480684677878</v>
       </c>
       <c r="LE15">
-        <v>7.369480684677882</v>
+        <v>7.369480684677878</v>
       </c>
       <c r="LF15">
         <v>61.34747052588334</v>
@@ -20559,7 +20565,7 @@
         <v>2.10052863215452</v>
       </c>
       <c r="HA20">
-        <v>-1.237189717519037</v>
+        <v>-1.237189717519035</v>
       </c>
       <c r="HB20">
         <v>34</v>
@@ -21533,7 +21539,7 @@
         <v>-2.10052863215452</v>
       </c>
       <c r="HA21">
-        <v>1.237189717519037</v>
+        <v>1.237189717519035</v>
       </c>
       <c r="HB21">
         <v>34</v>
@@ -24482,13 +24488,13 @@
         <v>38.29246050029435</v>
       </c>
       <c r="HJ24">
-        <v>18.01294384235074</v>
+        <v>18.01294384235073</v>
       </c>
       <c r="HK24">
-        <v>18.51996773225999</v>
+        <v>18.51996773225997</v>
       </c>
       <c r="HL24">
-        <v>7.083992996396804</v>
+        <v>7.083992996396799</v>
       </c>
       <c r="HM24">
         <v>14.24996368263414</v>
@@ -24770,7 +24776,7 @@
         <v>63.55216809498446</v>
       </c>
       <c r="LB24">
-        <v>18.01294384235074</v>
+        <v>18.01294384235073</v>
       </c>
       <c r="LC24">
         <v>36.02588768470147</v>
@@ -24788,10 +24794,10 @@
         <v>0</v>
       </c>
       <c r="LH24">
-        <v>17.50591995244149</v>
+        <v>17.5059199524415</v>
       </c>
       <c r="LI24">
-        <v>7.165970686237338</v>
+        <v>7.165970686237341</v>
       </c>
       <c r="LJ24">
         <v>0</v>
@@ -25456,13 +25462,13 @@
         <v>-38.29246050029435</v>
       </c>
       <c r="HJ25">
-        <v>-18.01294384235074</v>
+        <v>-18.01294384235073</v>
       </c>
       <c r="HK25">
-        <v>-18.51996773225999</v>
+        <v>-18.51996773225997</v>
       </c>
       <c r="HL25">
-        <v>-7.083992996396804</v>
+        <v>-7.083992996396799</v>
       </c>
       <c r="HM25">
         <v>-14.24996368263414</v>
@@ -25747,10 +25753,10 @@
         <v>0</v>
       </c>
       <c r="LC25">
-        <v>17.50591995244149</v>
+        <v>17.5059199524415</v>
       </c>
       <c r="LD25">
-        <v>7.165970686237338</v>
+        <v>7.165970686237341</v>
       </c>
       <c r="LE25">
         <v>0</v>
@@ -25759,7 +25765,7 @@
         <v>63.55216809498446</v>
       </c>
       <c r="LG25">
-        <v>18.01294384235074</v>
+        <v>18.01294384235073</v>
       </c>
       <c r="LH25">
         <v>36.02588768470147</v>
@@ -28375,19 +28381,19 @@
         <v>25</v>
       </c>
       <c r="HI28">
-        <v>52.0979772954031</v>
+        <v>52.09797729540311</v>
       </c>
       <c r="HJ28">
-        <v>45.816501212992</v>
+        <v>45.81650121299202</v>
       </c>
       <c r="HK28">
-        <v>5.893936915784368</v>
+        <v>5.893936915784375</v>
       </c>
       <c r="HL28">
-        <v>2.716476612811547</v>
+        <v>2.716476612811549</v>
       </c>
       <c r="HM28">
-        <v>2.716476612811547</v>
+        <v>2.716476612811549</v>
       </c>
       <c r="HN28">
         <v>76.08118065348408</v>
@@ -28663,34 +28669,34 @@
         <v>25</v>
       </c>
       <c r="LA28">
-        <v>74.11130606256191</v>
+        <v>74.11130606256192</v>
       </c>
       <c r="LB28">
-        <v>52.05586120262121</v>
+        <v>52.05586120262122</v>
       </c>
       <c r="LC28">
         <v>18.37265689504278</v>
       </c>
       <c r="LD28">
-        <v>7.652407909397082</v>
+        <v>7.652407909397083</v>
       </c>
       <c r="LE28">
-        <v>7.652407909397082</v>
+        <v>7.652407909397083</v>
       </c>
       <c r="LF28">
         <v>22.01332876715881</v>
       </c>
       <c r="LG28">
-        <v>6.239359989629205</v>
+        <v>6.239359989629203</v>
       </c>
       <c r="LH28">
         <v>12.47871997925841</v>
       </c>
       <c r="LI28">
-        <v>4.935931296585536</v>
+        <v>4.935931296585534</v>
       </c>
       <c r="LJ28">
-        <v>4.935931296585536</v>
+        <v>4.935931296585534</v>
       </c>
       <c r="LK28">
         <v>0.4597701149425287</v>
@@ -29349,19 +29355,19 @@
         <v>25</v>
       </c>
       <c r="HI29">
-        <v>-52.0979772954031</v>
+        <v>-52.09797729540311</v>
       </c>
       <c r="HJ29">
-        <v>-45.816501212992</v>
+        <v>-45.81650121299202</v>
       </c>
       <c r="HK29">
-        <v>-5.893936915784368</v>
+        <v>-5.893936915784375</v>
       </c>
       <c r="HL29">
-        <v>-2.716476612811547</v>
+        <v>-2.716476612811549</v>
       </c>
       <c r="HM29">
-        <v>-2.716476612811547</v>
+        <v>-2.716476612811549</v>
       </c>
       <c r="HN29">
         <v>0</v>
@@ -29640,37 +29646,1985 @@
         <v>22.01332876715881</v>
       </c>
       <c r="LB29">
-        <v>6.239359989629205</v>
+        <v>6.239359989629203</v>
       </c>
       <c r="LC29">
         <v>12.47871997925841</v>
       </c>
       <c r="LD29">
-        <v>4.935931296585536</v>
+        <v>4.935931296585534</v>
       </c>
       <c r="LE29">
-        <v>4.935931296585536</v>
+        <v>4.935931296585534</v>
       </c>
       <c r="LF29">
-        <v>74.11130606256191</v>
+        <v>74.11130606256192</v>
       </c>
       <c r="LG29">
-        <v>52.05586120262121</v>
+        <v>52.05586120262122</v>
       </c>
       <c r="LH29">
         <v>18.37265689504278</v>
       </c>
       <c r="LI29">
-        <v>7.652407909397082</v>
+        <v>7.652407909397083</v>
       </c>
       <c r="LJ29">
-        <v>7.652407909397082</v>
+        <v>7.652407909397083</v>
       </c>
       <c r="LK29">
         <v>0.1652892561983471</v>
       </c>
       <c r="LL29">
         <v>0.4597701149425287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:324">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>4</v>
+      </c>
+      <c r="AC30">
+        <v>4</v>
+      </c>
+      <c r="AD30">
+        <v>4</v>
+      </c>
+      <c r="AE30">
+        <v>4</v>
+      </c>
+      <c r="AF30">
+        <v>4</v>
+      </c>
+      <c r="AG30">
+        <v>4</v>
+      </c>
+      <c r="AH30">
+        <v>4</v>
+      </c>
+      <c r="AI30">
+        <v>4</v>
+      </c>
+      <c r="AJ30">
+        <v>4</v>
+      </c>
+      <c r="AK30">
+        <v>4</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>2</v>
+      </c>
+      <c r="AP30">
+        <v>2</v>
+      </c>
+      <c r="AQ30">
+        <v>2</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>3</v>
+      </c>
+      <c r="AU30">
+        <v>3</v>
+      </c>
+      <c r="AV30">
+        <v>4</v>
+      </c>
+      <c r="AW30">
+        <v>3</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>1</v>
+      </c>
+      <c r="BE30">
+        <v>1</v>
+      </c>
+      <c r="BF30">
+        <v>1</v>
+      </c>
+      <c r="BG30">
+        <v>1</v>
+      </c>
+      <c r="BH30">
+        <v>1</v>
+      </c>
+      <c r="BI30">
+        <v>1</v>
+      </c>
+      <c r="BJ30">
+        <v>1</v>
+      </c>
+      <c r="BK30">
+        <v>1</v>
+      </c>
+      <c r="BL30">
+        <v>1</v>
+      </c>
+      <c r="BM30">
+        <v>1</v>
+      </c>
+      <c r="BN30">
+        <v>1</v>
+      </c>
+      <c r="BO30">
+        <v>1</v>
+      </c>
+      <c r="BP30">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BQ30">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BR30">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BS30">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BT30">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BU30">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BV30">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BW30">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BX30">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BY30">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="BZ30">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="CA30">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="CB30">
+        <v>5</v>
+      </c>
+      <c r="CC30">
+        <v>3</v>
+      </c>
+      <c r="CD30">
+        <v>1</v>
+      </c>
+      <c r="CE30">
+        <v>1</v>
+      </c>
+      <c r="CF30">
+        <v>1</v>
+      </c>
+      <c r="CG30">
+        <v>23</v>
+      </c>
+      <c r="CH30">
+        <v>1</v>
+      </c>
+      <c r="CI30">
+        <v>0</v>
+      </c>
+      <c r="CJ30">
+        <v>1</v>
+      </c>
+      <c r="CK30">
+        <v>0</v>
+      </c>
+      <c r="CL30">
+        <v>0</v>
+      </c>
+      <c r="CM30">
+        <v>4</v>
+      </c>
+      <c r="CN30">
+        <v>-1</v>
+      </c>
+      <c r="CO30">
+        <v>0</v>
+      </c>
+      <c r="CP30">
+        <v>0</v>
+      </c>
+      <c r="CQ30">
+        <v>0</v>
+      </c>
+      <c r="CR30">
+        <v>0</v>
+      </c>
+      <c r="CS30">
+        <v>-1</v>
+      </c>
+      <c r="CT30">
+        <v>1</v>
+      </c>
+      <c r="CU30">
+        <v>1</v>
+      </c>
+      <c r="CV30">
+        <v>0</v>
+      </c>
+      <c r="CW30">
+        <v>0</v>
+      </c>
+      <c r="CX30">
+        <v>0</v>
+      </c>
+      <c r="CY30">
+        <v>3</v>
+      </c>
+      <c r="CZ30">
+        <v>0</v>
+      </c>
+      <c r="DA30">
+        <v>0</v>
+      </c>
+      <c r="DB30">
+        <v>0</v>
+      </c>
+      <c r="DC30">
+        <v>0</v>
+      </c>
+      <c r="DD30">
+        <v>0</v>
+      </c>
+      <c r="DE30">
+        <v>0</v>
+      </c>
+      <c r="DF30">
+        <v>0</v>
+      </c>
+      <c r="DG30">
+        <v>0</v>
+      </c>
+      <c r="DH30">
+        <v>0</v>
+      </c>
+      <c r="DI30">
+        <v>0</v>
+      </c>
+      <c r="DJ30">
+        <v>0</v>
+      </c>
+      <c r="DK30">
+        <v>0</v>
+      </c>
+      <c r="DL30">
+        <v>0</v>
+      </c>
+      <c r="DM30">
+        <v>0</v>
+      </c>
+      <c r="DN30">
+        <v>0</v>
+      </c>
+      <c r="DO30">
+        <v>0</v>
+      </c>
+      <c r="DP30">
+        <v>0</v>
+      </c>
+      <c r="DQ30">
+        <v>0</v>
+      </c>
+      <c r="DR30">
+        <v>0</v>
+      </c>
+      <c r="DS30">
+        <v>0</v>
+      </c>
+      <c r="DT30">
+        <v>0</v>
+      </c>
+      <c r="DU30">
+        <v>0</v>
+      </c>
+      <c r="DV30">
+        <v>0</v>
+      </c>
+      <c r="DW30">
+        <v>0</v>
+      </c>
+      <c r="DX30">
+        <v>0</v>
+      </c>
+      <c r="DY30">
+        <v>0</v>
+      </c>
+      <c r="DZ30">
+        <v>0</v>
+      </c>
+      <c r="EA30">
+        <v>0</v>
+      </c>
+      <c r="EB30">
+        <v>0</v>
+      </c>
+      <c r="EC30">
+        <v>0</v>
+      </c>
+      <c r="ED30">
+        <v>3</v>
+      </c>
+      <c r="EE30">
+        <v>2</v>
+      </c>
+      <c r="EF30">
+        <v>1</v>
+      </c>
+      <c r="EG30">
+        <v>1</v>
+      </c>
+      <c r="EH30">
+        <v>1</v>
+      </c>
+      <c r="EI30">
+        <v>19</v>
+      </c>
+      <c r="EJ30">
+        <v>-1</v>
+      </c>
+      <c r="EK30">
+        <v>-1</v>
+      </c>
+      <c r="EL30">
+        <v>0</v>
+      </c>
+      <c r="EM30">
+        <v>0</v>
+      </c>
+      <c r="EN30">
+        <v>0</v>
+      </c>
+      <c r="EO30">
+        <v>-3</v>
+      </c>
+      <c r="EP30">
+        <v>0</v>
+      </c>
+      <c r="EQ30">
+        <v>0</v>
+      </c>
+      <c r="ER30">
+        <v>0</v>
+      </c>
+      <c r="ES30">
+        <v>0</v>
+      </c>
+      <c r="ET30">
+        <v>0</v>
+      </c>
+      <c r="EU30">
+        <v>0</v>
+      </c>
+      <c r="EV30">
+        <v>1</v>
+      </c>
+      <c r="EW30">
+        <v>0</v>
+      </c>
+      <c r="EX30">
+        <v>0</v>
+      </c>
+      <c r="EY30">
+        <v>0</v>
+      </c>
+      <c r="EZ30">
+        <v>0</v>
+      </c>
+      <c r="FA30">
+        <v>1</v>
+      </c>
+      <c r="FB30">
+        <v>2</v>
+      </c>
+      <c r="FC30">
+        <v>1</v>
+      </c>
+      <c r="FD30">
+        <v>1</v>
+      </c>
+      <c r="FE30">
+        <v>0</v>
+      </c>
+      <c r="FF30">
+        <v>0</v>
+      </c>
+      <c r="FG30">
+        <v>7</v>
+      </c>
+      <c r="FH30">
+        <v>-1</v>
+      </c>
+      <c r="FI30">
+        <v>0</v>
+      </c>
+      <c r="FJ30">
+        <v>0</v>
+      </c>
+      <c r="FK30">
+        <v>0</v>
+      </c>
+      <c r="FL30">
+        <v>0</v>
+      </c>
+      <c r="FM30">
+        <v>-1</v>
+      </c>
+      <c r="FN30">
+        <v>76</v>
+      </c>
+      <c r="FO30">
+        <v>9</v>
+      </c>
+      <c r="FP30">
+        <v>0</v>
+      </c>
+      <c r="FQ30">
+        <v>51</v>
+      </c>
+      <c r="FR30">
+        <v>16</v>
+      </c>
+      <c r="FS30">
+        <v>0</v>
+      </c>
+      <c r="FT30">
+        <v>0</v>
+      </c>
+      <c r="FU30">
+        <v>0</v>
+      </c>
+      <c r="FV30">
+        <v>0</v>
+      </c>
+      <c r="FW30">
+        <v>0</v>
+      </c>
+      <c r="FX30">
+        <v>1</v>
+      </c>
+      <c r="FY30">
+        <v>83.83884092835099</v>
+      </c>
+      <c r="FZ30">
+        <v>70.28951248209341</v>
+      </c>
+      <c r="GA30">
+        <v>0</v>
+      </c>
+      <c r="GB30">
+        <v>0</v>
+      </c>
+      <c r="GC30">
+        <v>0</v>
+      </c>
+      <c r="GD30">
+        <v>4</v>
+      </c>
+      <c r="GE30">
+        <v>91.97514243024213</v>
+      </c>
+      <c r="GF30">
+        <v>60.4244773218809</v>
+      </c>
+      <c r="GG30">
+        <v>24.16979092875236</v>
+      </c>
+      <c r="GH30">
+        <v>9.257788885483542</v>
+      </c>
+      <c r="GI30">
+        <v>9.257788885483542</v>
+      </c>
+      <c r="GJ30">
+        <v>13</v>
+      </c>
+      <c r="GK30">
+        <v>93.4688887045404</v>
+      </c>
+      <c r="GL30">
+        <v>55.59548371784757</v>
+      </c>
+      <c r="GM30">
+        <v>31.76884783877004</v>
+      </c>
+      <c r="GN30">
+        <v>13.32412141656575</v>
+      </c>
+      <c r="GO30">
+        <v>13.32412141656575</v>
+      </c>
+      <c r="GP30">
+        <v>19</v>
+      </c>
+      <c r="GQ30">
+        <v>93.90000092275456</v>
+      </c>
+      <c r="GR30">
+        <v>54.2597549125742</v>
+      </c>
+      <c r="GS30">
+        <v>33.91234682035887</v>
+      </c>
+      <c r="GT30">
+        <v>14.00030536759409</v>
+      </c>
+      <c r="GU30">
+        <v>17.40726734998997</v>
+      </c>
+      <c r="GV30">
+        <v>23</v>
+      </c>
+      <c r="GW30">
+        <v>94.08425505324479</v>
+      </c>
+      <c r="GX30">
+        <v>53.1110822935441</v>
+      </c>
+      <c r="GY30">
+        <v>35.40738819569608</v>
+      </c>
+      <c r="GZ30">
+        <v>15.29882914112259</v>
+      </c>
+      <c r="HA30">
+        <v>15.29882914112259</v>
+      </c>
+      <c r="HB30">
+        <v>27</v>
+      </c>
+      <c r="HC30">
+        <v>43.24145886607518</v>
+      </c>
+      <c r="HD30">
+        <v>31.71332774192036</v>
+      </c>
+      <c r="HE30">
+        <v>11.16269477875866</v>
+      </c>
+      <c r="HF30">
+        <v>5.303395420345206</v>
+      </c>
+      <c r="HG30">
+        <v>5.303395420345206</v>
+      </c>
+      <c r="HH30">
+        <v>33</v>
+      </c>
+      <c r="HI30">
+        <v>45.26900726544853</v>
+      </c>
+      <c r="HJ30">
+        <v>32.62395771234812</v>
+      </c>
+      <c r="HK30">
+        <v>12.24417092579248</v>
+      </c>
+      <c r="HL30">
+        <v>5.811328986336491</v>
+      </c>
+      <c r="HM30">
+        <v>5.811328986336491</v>
+      </c>
+      <c r="HN30">
+        <v>0</v>
+      </c>
+      <c r="HO30">
+        <v>0</v>
+      </c>
+      <c r="HP30">
+        <v>0</v>
+      </c>
+      <c r="HQ30">
+        <v>0</v>
+      </c>
+      <c r="HR30">
+        <v>0</v>
+      </c>
+      <c r="HS30">
+        <v>0</v>
+      </c>
+      <c r="HT30">
+        <v>0</v>
+      </c>
+      <c r="HU30">
+        <v>0</v>
+      </c>
+      <c r="HV30">
+        <v>0</v>
+      </c>
+      <c r="HW30">
+        <v>0</v>
+      </c>
+      <c r="HX30">
+        <v>0</v>
+      </c>
+      <c r="HY30">
+        <v>0</v>
+      </c>
+      <c r="HZ30">
+        <v>1</v>
+      </c>
+      <c r="IA30">
+        <v>83.83884092835099</v>
+      </c>
+      <c r="IB30">
+        <v>70.28951248209341</v>
+      </c>
+      <c r="IC30">
+        <v>0</v>
+      </c>
+      <c r="ID30">
+        <v>0</v>
+      </c>
+      <c r="IE30">
+        <v>0</v>
+      </c>
+      <c r="IF30">
+        <v>0</v>
+      </c>
+      <c r="IG30">
+        <v>0</v>
+      </c>
+      <c r="IH30">
+        <v>0</v>
+      </c>
+      <c r="II30">
+        <v>0</v>
+      </c>
+      <c r="IJ30">
+        <v>0</v>
+      </c>
+      <c r="IK30">
+        <v>0</v>
+      </c>
+      <c r="IL30">
+        <v>0</v>
+      </c>
+      <c r="IM30">
+        <v>4</v>
+      </c>
+      <c r="IN30">
+        <v>91.97514243024213</v>
+      </c>
+      <c r="IO30">
+        <v>60.4244773218809</v>
+      </c>
+      <c r="IP30">
+        <v>24.16979092875236</v>
+      </c>
+      <c r="IQ30">
+        <v>9.257788885483542</v>
+      </c>
+      <c r="IR30">
+        <v>9.257788885483542</v>
+      </c>
+      <c r="IS30">
+        <v>0</v>
+      </c>
+      <c r="IT30">
+        <v>0</v>
+      </c>
+      <c r="IU30">
+        <v>0</v>
+      </c>
+      <c r="IV30">
+        <v>0</v>
+      </c>
+      <c r="IW30">
+        <v>0</v>
+      </c>
+      <c r="IX30">
+        <v>0.198019801980198</v>
+      </c>
+      <c r="IY30">
+        <v>0</v>
+      </c>
+      <c r="IZ30">
+        <v>13</v>
+      </c>
+      <c r="JA30">
+        <v>93.4688887045404</v>
+      </c>
+      <c r="JB30">
+        <v>55.59548371784757</v>
+      </c>
+      <c r="JC30">
+        <v>31.76884783877004</v>
+      </c>
+      <c r="JD30">
+        <v>13.32412141656575</v>
+      </c>
+      <c r="JE30">
+        <v>13.32412141656575</v>
+      </c>
+      <c r="JF30">
+        <v>0</v>
+      </c>
+      <c r="JG30">
+        <v>0</v>
+      </c>
+      <c r="JH30">
+        <v>0</v>
+      </c>
+      <c r="JI30">
+        <v>0</v>
+      </c>
+      <c r="JJ30">
+        <v>0</v>
+      </c>
+      <c r="JK30">
+        <v>0.2836879432624114</v>
+      </c>
+      <c r="JL30">
+        <v>0</v>
+      </c>
+      <c r="JM30">
+        <v>19</v>
+      </c>
+      <c r="JN30">
+        <v>93.90000092275456</v>
+      </c>
+      <c r="JO30">
+        <v>54.2597549125742</v>
+      </c>
+      <c r="JP30">
+        <v>33.91234682035887</v>
+      </c>
+      <c r="JQ30">
+        <v>14.00030536759409</v>
+      </c>
+      <c r="JR30">
+        <v>17.40726734998997</v>
+      </c>
+      <c r="JS30">
+        <v>0</v>
+      </c>
+      <c r="JT30">
+        <v>0</v>
+      </c>
+      <c r="JU30">
+        <v>0</v>
+      </c>
+      <c r="JV30">
+        <v>0</v>
+      </c>
+      <c r="JW30">
+        <v>0</v>
+      </c>
+      <c r="JX30">
+        <v>0.3726708074534161</v>
+      </c>
+      <c r="JY30">
+        <v>0</v>
+      </c>
+      <c r="JZ30">
+        <v>23</v>
+      </c>
+      <c r="KA30">
+        <v>94.08425505324479</v>
+      </c>
+      <c r="KB30">
+        <v>53.1110822935441</v>
+      </c>
+      <c r="KC30">
+        <v>35.40738819569608</v>
+      </c>
+      <c r="KD30">
+        <v>15.29882914112259</v>
+      </c>
+      <c r="KE30">
+        <v>15.29882914112259</v>
+      </c>
+      <c r="KF30">
+        <v>0</v>
+      </c>
+      <c r="KG30">
+        <v>0</v>
+      </c>
+      <c r="KH30">
+        <v>0</v>
+      </c>
+      <c r="KI30">
+        <v>0</v>
+      </c>
+      <c r="KJ30">
+        <v>0</v>
+      </c>
+      <c r="KK30">
+        <v>0.2985074626865671</v>
+      </c>
+      <c r="KL30">
+        <v>0</v>
+      </c>
+      <c r="KM30">
+        <v>27</v>
+      </c>
+      <c r="KN30">
+        <v>69.43770862019433</v>
+      </c>
+      <c r="KO30">
+        <v>39.19797052881155</v>
+      </c>
+      <c r="KP30">
+        <v>26.13198035254104</v>
+      </c>
+      <c r="KQ30">
+        <v>11.29110964985816</v>
+      </c>
+      <c r="KR30">
+        <v>11.29110964985816</v>
+      </c>
+      <c r="KS30">
+        <v>26.19624975411915</v>
+      </c>
+      <c r="KT30">
+        <v>7.484642786891186</v>
+      </c>
+      <c r="KU30">
+        <v>14.96928557378237</v>
+      </c>
+      <c r="KV30">
+        <v>5.98771422951295</v>
+      </c>
+      <c r="KW30">
+        <v>5.98771422951295</v>
+      </c>
+      <c r="KX30">
+        <v>0.2985074626865671</v>
+      </c>
+      <c r="KY30">
+        <v>0.198019801980198</v>
+      </c>
+      <c r="KZ30">
+        <v>33</v>
+      </c>
+      <c r="LA30">
+        <v>70.4205826853116</v>
+      </c>
+      <c r="LB30">
+        <v>39.75280837417782</v>
+      </c>
+      <c r="LC30">
+        <v>26.50187224945189</v>
+      </c>
+      <c r="LD30">
+        <v>11.45093259133715</v>
+      </c>
+      <c r="LE30">
+        <v>11.45093259133715</v>
+      </c>
+      <c r="LF30">
+        <v>25.15157541986307</v>
+      </c>
+      <c r="LG30">
+        <v>7.128850661829704</v>
+      </c>
+      <c r="LH30">
+        <v>14.25770132365941</v>
+      </c>
+      <c r="LI30">
+        <v>5.63960360500066</v>
+      </c>
+      <c r="LJ30">
+        <v>5.63960360500066</v>
+      </c>
+      <c r="LK30">
+        <v>0.2985074626865671</v>
+      </c>
+      <c r="LL30">
+        <v>0.1652892561983471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:324">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>352</v>
+      </c>
+      <c r="C31">
+        <v>-1</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>-4</v>
+      </c>
+      <c r="AC31">
+        <v>-4</v>
+      </c>
+      <c r="AD31">
+        <v>-4</v>
+      </c>
+      <c r="AE31">
+        <v>-4</v>
+      </c>
+      <c r="AF31">
+        <v>-4</v>
+      </c>
+      <c r="AG31">
+        <v>-4</v>
+      </c>
+      <c r="AH31">
+        <v>-4</v>
+      </c>
+      <c r="AI31">
+        <v>-4</v>
+      </c>
+      <c r="AJ31">
+        <v>-4</v>
+      </c>
+      <c r="AK31">
+        <v>-4</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>-1</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>-2</v>
+      </c>
+      <c r="AP31">
+        <v>-2</v>
+      </c>
+      <c r="AQ31">
+        <v>-2</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>-3</v>
+      </c>
+      <c r="AU31">
+        <v>-3</v>
+      </c>
+      <c r="AV31">
+        <v>-4</v>
+      </c>
+      <c r="AW31">
+        <v>-3</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>-1</v>
+      </c>
+      <c r="BE31">
+        <v>-1</v>
+      </c>
+      <c r="BF31">
+        <v>-1</v>
+      </c>
+      <c r="BG31">
+        <v>-1</v>
+      </c>
+      <c r="BH31">
+        <v>-1</v>
+      </c>
+      <c r="BI31">
+        <v>-1</v>
+      </c>
+      <c r="BJ31">
+        <v>-1</v>
+      </c>
+      <c r="BK31">
+        <v>-1</v>
+      </c>
+      <c r="BL31">
+        <v>-1</v>
+      </c>
+      <c r="BM31">
+        <v>-1</v>
+      </c>
+      <c r="BN31">
+        <v>-1</v>
+      </c>
+      <c r="BO31">
+        <v>-1</v>
+      </c>
+      <c r="BP31">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BQ31">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BR31">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BS31">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BT31">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BU31">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BV31">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BW31">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BX31">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BY31">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BZ31">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CA31">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="CB31">
+        <v>-5</v>
+      </c>
+      <c r="CC31">
+        <v>-3</v>
+      </c>
+      <c r="CD31">
+        <v>-1</v>
+      </c>
+      <c r="CE31">
+        <v>-1</v>
+      </c>
+      <c r="CF31">
+        <v>-1</v>
+      </c>
+      <c r="CG31">
+        <v>-23</v>
+      </c>
+      <c r="CH31">
+        <v>-1</v>
+      </c>
+      <c r="CI31">
+        <v>0</v>
+      </c>
+      <c r="CJ31">
+        <v>-1</v>
+      </c>
+      <c r="CK31">
+        <v>0</v>
+      </c>
+      <c r="CL31">
+        <v>0</v>
+      </c>
+      <c r="CM31">
+        <v>-4</v>
+      </c>
+      <c r="CN31">
+        <v>1</v>
+      </c>
+      <c r="CO31">
+        <v>0</v>
+      </c>
+      <c r="CP31">
+        <v>0</v>
+      </c>
+      <c r="CQ31">
+        <v>0</v>
+      </c>
+      <c r="CR31">
+        <v>0</v>
+      </c>
+      <c r="CS31">
+        <v>1</v>
+      </c>
+      <c r="CT31">
+        <v>-1</v>
+      </c>
+      <c r="CU31">
+        <v>-1</v>
+      </c>
+      <c r="CV31">
+        <v>0</v>
+      </c>
+      <c r="CW31">
+        <v>0</v>
+      </c>
+      <c r="CX31">
+        <v>0</v>
+      </c>
+      <c r="CY31">
+        <v>-3</v>
+      </c>
+      <c r="CZ31">
+        <v>0</v>
+      </c>
+      <c r="DA31">
+        <v>0</v>
+      </c>
+      <c r="DB31">
+        <v>0</v>
+      </c>
+      <c r="DC31">
+        <v>0</v>
+      </c>
+      <c r="DD31">
+        <v>0</v>
+      </c>
+      <c r="DE31">
+        <v>0</v>
+      </c>
+      <c r="DF31">
+        <v>0</v>
+      </c>
+      <c r="DG31">
+        <v>0</v>
+      </c>
+      <c r="DH31">
+        <v>0</v>
+      </c>
+      <c r="DI31">
+        <v>0</v>
+      </c>
+      <c r="DJ31">
+        <v>0</v>
+      </c>
+      <c r="DK31">
+        <v>0</v>
+      </c>
+      <c r="DL31">
+        <v>0</v>
+      </c>
+      <c r="DM31">
+        <v>0</v>
+      </c>
+      <c r="DN31">
+        <v>0</v>
+      </c>
+      <c r="DO31">
+        <v>0</v>
+      </c>
+      <c r="DP31">
+        <v>0</v>
+      </c>
+      <c r="DQ31">
+        <v>0</v>
+      </c>
+      <c r="DR31">
+        <v>0</v>
+      </c>
+      <c r="DS31">
+        <v>0</v>
+      </c>
+      <c r="DT31">
+        <v>0</v>
+      </c>
+      <c r="DU31">
+        <v>0</v>
+      </c>
+      <c r="DV31">
+        <v>0</v>
+      </c>
+      <c r="DW31">
+        <v>0</v>
+      </c>
+      <c r="DX31">
+        <v>0</v>
+      </c>
+      <c r="DY31">
+        <v>0</v>
+      </c>
+      <c r="DZ31">
+        <v>0</v>
+      </c>
+      <c r="EA31">
+        <v>0</v>
+      </c>
+      <c r="EB31">
+        <v>0</v>
+      </c>
+      <c r="EC31">
+        <v>0</v>
+      </c>
+      <c r="ED31">
+        <v>-3</v>
+      </c>
+      <c r="EE31">
+        <v>-2</v>
+      </c>
+      <c r="EF31">
+        <v>-1</v>
+      </c>
+      <c r="EG31">
+        <v>-1</v>
+      </c>
+      <c r="EH31">
+        <v>-1</v>
+      </c>
+      <c r="EI31">
+        <v>-19</v>
+      </c>
+      <c r="EJ31">
+        <v>1</v>
+      </c>
+      <c r="EK31">
+        <v>1</v>
+      </c>
+      <c r="EL31">
+        <v>0</v>
+      </c>
+      <c r="EM31">
+        <v>0</v>
+      </c>
+      <c r="EN31">
+        <v>0</v>
+      </c>
+      <c r="EO31">
+        <v>3</v>
+      </c>
+      <c r="EP31">
+        <v>0</v>
+      </c>
+      <c r="EQ31">
+        <v>0</v>
+      </c>
+      <c r="ER31">
+        <v>0</v>
+      </c>
+      <c r="ES31">
+        <v>0</v>
+      </c>
+      <c r="ET31">
+        <v>0</v>
+      </c>
+      <c r="EU31">
+        <v>0</v>
+      </c>
+      <c r="EV31">
+        <v>-1</v>
+      </c>
+      <c r="EW31">
+        <v>0</v>
+      </c>
+      <c r="EX31">
+        <v>0</v>
+      </c>
+      <c r="EY31">
+        <v>0</v>
+      </c>
+      <c r="EZ31">
+        <v>0</v>
+      </c>
+      <c r="FA31">
+        <v>-1</v>
+      </c>
+      <c r="FB31">
+        <v>-2</v>
+      </c>
+      <c r="FC31">
+        <v>-1</v>
+      </c>
+      <c r="FD31">
+        <v>-1</v>
+      </c>
+      <c r="FE31">
+        <v>0</v>
+      </c>
+      <c r="FF31">
+        <v>0</v>
+      </c>
+      <c r="FG31">
+        <v>-7</v>
+      </c>
+      <c r="FH31">
+        <v>1</v>
+      </c>
+      <c r="FI31">
+        <v>0</v>
+      </c>
+      <c r="FJ31">
+        <v>0</v>
+      </c>
+      <c r="FK31">
+        <v>0</v>
+      </c>
+      <c r="FL31">
+        <v>0</v>
+      </c>
+      <c r="FM31">
+        <v>1</v>
+      </c>
+      <c r="FN31">
+        <v>-76</v>
+      </c>
+      <c r="FO31">
+        <v>-9</v>
+      </c>
+      <c r="FP31">
+        <v>0</v>
+      </c>
+      <c r="FQ31">
+        <v>-51</v>
+      </c>
+      <c r="FR31">
+        <v>-16</v>
+      </c>
+      <c r="FS31">
+        <v>0</v>
+      </c>
+      <c r="FT31">
+        <v>0</v>
+      </c>
+      <c r="FU31">
+        <v>0</v>
+      </c>
+      <c r="FV31">
+        <v>0</v>
+      </c>
+      <c r="FW31">
+        <v>0</v>
+      </c>
+      <c r="FX31">
+        <v>1</v>
+      </c>
+      <c r="FY31">
+        <v>-83.83884092835099</v>
+      </c>
+      <c r="FZ31">
+        <v>-70.28951248209341</v>
+      </c>
+      <c r="GA31">
+        <v>0</v>
+      </c>
+      <c r="GB31">
+        <v>0</v>
+      </c>
+      <c r="GC31">
+        <v>0</v>
+      </c>
+      <c r="GD31">
+        <v>4</v>
+      </c>
+      <c r="GE31">
+        <v>-91.97514243024213</v>
+      </c>
+      <c r="GF31">
+        <v>-60.4244773218809</v>
+      </c>
+      <c r="GG31">
+        <v>-24.16979092875236</v>
+      </c>
+      <c r="GH31">
+        <v>-9.257788885483542</v>
+      </c>
+      <c r="GI31">
+        <v>-9.257788885483542</v>
+      </c>
+      <c r="GJ31">
+        <v>13</v>
+      </c>
+      <c r="GK31">
+        <v>-93.4688887045404</v>
+      </c>
+      <c r="GL31">
+        <v>-55.59548371784757</v>
+      </c>
+      <c r="GM31">
+        <v>-31.76884783877004</v>
+      </c>
+      <c r="GN31">
+        <v>-13.32412141656575</v>
+      </c>
+      <c r="GO31">
+        <v>-13.32412141656575</v>
+      </c>
+      <c r="GP31">
+        <v>19</v>
+      </c>
+      <c r="GQ31">
+        <v>-93.90000092275456</v>
+      </c>
+      <c r="GR31">
+        <v>-54.2597549125742</v>
+      </c>
+      <c r="GS31">
+        <v>-33.91234682035887</v>
+      </c>
+      <c r="GT31">
+        <v>-14.00030536759409</v>
+      </c>
+      <c r="GU31">
+        <v>-17.40726734998997</v>
+      </c>
+      <c r="GV31">
+        <v>23</v>
+      </c>
+      <c r="GW31">
+        <v>-94.08425505324479</v>
+      </c>
+      <c r="GX31">
+        <v>-53.1110822935441</v>
+      </c>
+      <c r="GY31">
+        <v>-35.40738819569608</v>
+      </c>
+      <c r="GZ31">
+        <v>-15.29882914112259</v>
+      </c>
+      <c r="HA31">
+        <v>-15.29882914112259</v>
+      </c>
+      <c r="HB31">
+        <v>27</v>
+      </c>
+      <c r="HC31">
+        <v>-43.24145886607518</v>
+      </c>
+      <c r="HD31">
+        <v>-31.71332774192036</v>
+      </c>
+      <c r="HE31">
+        <v>-11.16269477875866</v>
+      </c>
+      <c r="HF31">
+        <v>-5.303395420345206</v>
+      </c>
+      <c r="HG31">
+        <v>-5.303395420345206</v>
+      </c>
+      <c r="HH31">
+        <v>33</v>
+      </c>
+      <c r="HI31">
+        <v>-45.26900726544853</v>
+      </c>
+      <c r="HJ31">
+        <v>-32.62395771234812</v>
+      </c>
+      <c r="HK31">
+        <v>-12.24417092579248</v>
+      </c>
+      <c r="HL31">
+        <v>-5.811328986336491</v>
+      </c>
+      <c r="HM31">
+        <v>-5.811328986336491</v>
+      </c>
+      <c r="HN31">
+        <v>0</v>
+      </c>
+      <c r="HO31">
+        <v>0</v>
+      </c>
+      <c r="HP31">
+        <v>0</v>
+      </c>
+      <c r="HQ31">
+        <v>0</v>
+      </c>
+      <c r="HR31">
+        <v>0</v>
+      </c>
+      <c r="HS31">
+        <v>0</v>
+      </c>
+      <c r="HT31">
+        <v>0</v>
+      </c>
+      <c r="HU31">
+        <v>0</v>
+      </c>
+      <c r="HV31">
+        <v>0</v>
+      </c>
+      <c r="HW31">
+        <v>0</v>
+      </c>
+      <c r="HX31">
+        <v>0</v>
+      </c>
+      <c r="HY31">
+        <v>0</v>
+      </c>
+      <c r="HZ31">
+        <v>1</v>
+      </c>
+      <c r="IA31">
+        <v>0</v>
+      </c>
+      <c r="IB31">
+        <v>0</v>
+      </c>
+      <c r="IC31">
+        <v>0</v>
+      </c>
+      <c r="ID31">
+        <v>0</v>
+      </c>
+      <c r="IE31">
+        <v>0</v>
+      </c>
+      <c r="IF31">
+        <v>83.83884092835099</v>
+      </c>
+      <c r="IG31">
+        <v>70.28951248209341</v>
+      </c>
+      <c r="IH31">
+        <v>0</v>
+      </c>
+      <c r="II31">
+        <v>0</v>
+      </c>
+      <c r="IJ31">
+        <v>0</v>
+      </c>
+      <c r="IK31">
+        <v>0</v>
+      </c>
+      <c r="IL31">
+        <v>0</v>
+      </c>
+      <c r="IM31">
+        <v>4</v>
+      </c>
+      <c r="IN31">
+        <v>0</v>
+      </c>
+      <c r="IO31">
+        <v>0</v>
+      </c>
+      <c r="IP31">
+        <v>0</v>
+      </c>
+      <c r="IQ31">
+        <v>0</v>
+      </c>
+      <c r="IR31">
+        <v>0</v>
+      </c>
+      <c r="IS31">
+        <v>91.97514243024213</v>
+      </c>
+      <c r="IT31">
+        <v>60.4244773218809</v>
+      </c>
+      <c r="IU31">
+        <v>24.16979092875236</v>
+      </c>
+      <c r="IV31">
+        <v>9.257788885483542</v>
+      </c>
+      <c r="IW31">
+        <v>9.257788885483542</v>
+      </c>
+      <c r="IX31">
+        <v>0</v>
+      </c>
+      <c r="IY31">
+        <v>0.198019801980198</v>
+      </c>
+      <c r="IZ31">
+        <v>13</v>
+      </c>
+      <c r="JA31">
+        <v>0</v>
+      </c>
+      <c r="JB31">
+        <v>0</v>
+      </c>
+      <c r="JC31">
+        <v>0</v>
+      </c>
+      <c r="JD31">
+        <v>0</v>
+      </c>
+      <c r="JE31">
+        <v>0</v>
+      </c>
+      <c r="JF31">
+        <v>93.4688887045404</v>
+      </c>
+      <c r="JG31">
+        <v>55.59548371784757</v>
+      </c>
+      <c r="JH31">
+        <v>31.76884783877004</v>
+      </c>
+      <c r="JI31">
+        <v>13.32412141656575</v>
+      </c>
+      <c r="JJ31">
+        <v>13.32412141656575</v>
+      </c>
+      <c r="JK31">
+        <v>0</v>
+      </c>
+      <c r="JL31">
+        <v>0.2836879432624114</v>
+      </c>
+      <c r="JM31">
+        <v>19</v>
+      </c>
+      <c r="JN31">
+        <v>0</v>
+      </c>
+      <c r="JO31">
+        <v>0</v>
+      </c>
+      <c r="JP31">
+        <v>0</v>
+      </c>
+      <c r="JQ31">
+        <v>0</v>
+      </c>
+      <c r="JR31">
+        <v>0</v>
+      </c>
+      <c r="JS31">
+        <v>93.90000092275456</v>
+      </c>
+      <c r="JT31">
+        <v>54.2597549125742</v>
+      </c>
+      <c r="JU31">
+        <v>33.91234682035887</v>
+      </c>
+      <c r="JV31">
+        <v>14.00030536759409</v>
+      </c>
+      <c r="JW31">
+        <v>17.40726734998997</v>
+      </c>
+      <c r="JX31">
+        <v>0</v>
+      </c>
+      <c r="JY31">
+        <v>0.3726708074534161</v>
+      </c>
+      <c r="JZ31">
+        <v>23</v>
+      </c>
+      <c r="KA31">
+        <v>0</v>
+      </c>
+      <c r="KB31">
+        <v>0</v>
+      </c>
+      <c r="KC31">
+        <v>0</v>
+      </c>
+      <c r="KD31">
+        <v>0</v>
+      </c>
+      <c r="KE31">
+        <v>0</v>
+      </c>
+      <c r="KF31">
+        <v>94.08425505324479</v>
+      </c>
+      <c r="KG31">
+        <v>53.1110822935441</v>
+      </c>
+      <c r="KH31">
+        <v>35.40738819569608</v>
+      </c>
+      <c r="KI31">
+        <v>15.29882914112259</v>
+      </c>
+      <c r="KJ31">
+        <v>15.29882914112259</v>
+      </c>
+      <c r="KK31">
+        <v>0</v>
+      </c>
+      <c r="KL31">
+        <v>0.2985074626865671</v>
+      </c>
+      <c r="KM31">
+        <v>27</v>
+      </c>
+      <c r="KN31">
+        <v>26.19624975411915</v>
+      </c>
+      <c r="KO31">
+        <v>7.484642786891186</v>
+      </c>
+      <c r="KP31">
+        <v>14.96928557378237</v>
+      </c>
+      <c r="KQ31">
+        <v>5.98771422951295</v>
+      </c>
+      <c r="KR31">
+        <v>5.98771422951295</v>
+      </c>
+      <c r="KS31">
+        <v>69.43770862019433</v>
+      </c>
+      <c r="KT31">
+        <v>39.19797052881155</v>
+      </c>
+      <c r="KU31">
+        <v>26.13198035254104</v>
+      </c>
+      <c r="KV31">
+        <v>11.29110964985816</v>
+      </c>
+      <c r="KW31">
+        <v>11.29110964985816</v>
+      </c>
+      <c r="KX31">
+        <v>0.198019801980198</v>
+      </c>
+      <c r="KY31">
+        <v>0.2985074626865671</v>
+      </c>
+      <c r="KZ31">
+        <v>33</v>
+      </c>
+      <c r="LA31">
+        <v>25.15157541986307</v>
+      </c>
+      <c r="LB31">
+        <v>7.128850661829704</v>
+      </c>
+      <c r="LC31">
+        <v>14.25770132365941</v>
+      </c>
+      <c r="LD31">
+        <v>5.63960360500066</v>
+      </c>
+      <c r="LE31">
+        <v>5.63960360500066</v>
+      </c>
+      <c r="LF31">
+        <v>70.4205826853116</v>
+      </c>
+      <c r="LG31">
+        <v>39.75280837417782</v>
+      </c>
+      <c r="LH31">
+        <v>26.50187224945189</v>
+      </c>
+      <c r="LI31">
+        <v>11.45093259133715</v>
+      </c>
+      <c r="LJ31">
+        <v>11.45093259133715</v>
+      </c>
+      <c r="LK31">
+        <v>0.1652892561983471</v>
+      </c>
+      <c r="LL31">
+        <v>0.2985074626865671</v>
       </c>
     </row>
   </sheetData>
